--- a/Data/blackbody.xlsx
+++ b/Data/blackbody.xlsx
@@ -1978,7 +1978,7 @@
         <v>571</v>
       </c>
       <c r="B193" t="n">
-        <v>3.612122971308989e+21</v>
+        <v>3.61212297130899e+21</v>
       </c>
     </row>
     <row r="194">
@@ -2738,7 +2738,7 @@
         <v>666</v>
       </c>
       <c r="B288" t="n">
-        <v>4.120755883822401e+21</v>
+        <v>4.1207558838224e+21</v>
       </c>
     </row>
     <row r="289">
